--- a/medicine/Psychotrope/Lucie-kuhlmann/Lucie-kuhlmann.xlsx
+++ b/medicine/Psychotrope/Lucie-kuhlmann/Lucie-kuhlmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le lucie-kuhlmann est un cépage de raisins noirs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lucie-kuhlmann est une obtention de Eugène Kuhlmann vers 1911 en croisant (Vitis riparia × Vitis rupestris) × Goldriesling dans les installations du Institut Viticole Oberlin à Colmar en Alsace et commercialisé à partir de 1921.
 Le cépage est une hybride avec des parentages de Vitis vinifera, Vitis riparia et Vitis rupestris.
@@ -547,7 +561,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de première époque précoce : 5 - 6 jours avant le chasselas.
 </t>
@@ -578,7 +594,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont moyennes et longues et les baies sont de taille petite. La grappe est cylindrique et lâche. Le cépage est vigoureux mais peu productif.
 Le vin rouge est très coloré utilisable dans des assemblages.
@@ -610,7 +628,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Lucie Kuhlmann est connu sous les noms 149-1 Kuhlmann, 149-3 Kuhlmann
 </t>
